--- a/BUSDATA_fallalong.xlsx
+++ b/BUSDATA_fallalong.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="NODOS" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -338,6 +338,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -850,7 +851,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="B2" sqref="B2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1059,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B2" sqref="B2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,20 +1123,20 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E3" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.15</v>
       </c>
       <c r="F3" s="2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" ref="G3:G5" si="0">F3/2</f>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -1176,20 +1177,20 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>-1.5</v>
       </c>
       <c r="F5" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -1199,28 +1200,13 @@
       <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>-1.5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" ref="G6" si="1">F6/2</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -1272,6 +1258,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1280,7 +1267,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B2" sqref="B2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,26 +1327,26 @@
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
         <v>3</v>
       </c>
-      <c r="D3" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G5" si="0">F3/2</f>
         <v>0.1</v>
       </c>
-      <c r="F3" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G4" si="0">F3/2</f>
-        <v>0.15</v>
-      </c>
-      <c r="H3" s="7">
+      <c r="H3" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1367,26 +1354,26 @@
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>-1.5</v>
+      <c r="D4" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.1</v>
       </c>
       <c r="F4" s="2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1394,13 +1381,28 @@
       <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -1471,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:N3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,11 +1563,11 @@
       <c r="L2" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M2" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="N2" s="10">
-        <v>2.2000000000000002</v>
+      <c r="M2" s="24">
+        <v>0.54</v>
+      </c>
+      <c r="N2" s="24">
+        <v>5.9</v>
       </c>
       <c r="O2" s="10">
         <v>4</v>
@@ -1608,11 +1610,11 @@
       <c r="L3" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M3" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="N3" s="10">
-        <v>2.2000000000000002</v>
+      <c r="M3" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="N3" s="24">
+        <v>5.8</v>
       </c>
       <c r="O3" s="10">
         <v>5</v>
@@ -1639,8 +1641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
